--- a/pred_ohlcv/54_21/2019-10-29 ICX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 ICX ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>1091313.300534836</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>1091325.938334836</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1091325.938334836</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -678,7 +678,7 @@
         <v>1086218.525834836</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -860,7 +860,7 @@
         <v>1093509.217790673</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -938,7 +938,7 @@
         <v>1094520.044090673</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>1094520.044090673</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>1094418.004090673</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>1094418.004090673</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>1117796.868590673</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>1123186.695890673</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>1123124.417790673</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>1123114.442790673</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>1123115.609790673</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>1123115.609790673</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>1117870.879590673</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>1119730.571790673</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>1119730.571790673</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>1118482.702690673</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>1118509.502690673</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>1118499.502690673</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>1097263.517890673</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>1097265.443890673</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>1097265.443890673</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>1097265.443890673</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>1095856.690990673</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>1095855.690990673</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>1095856.997690673</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>1095856.997690673</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>1095635.722790673</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>1085328.429190673</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>1085328.429190673</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>1087763.701390673</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>1087763.701390673</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>1085849.151690673</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>1085849.151690673</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-29 ICX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 ICX ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>1091325.938334836</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1091325.938334836</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -678,7 +678,7 @@
         <v>1086218.525834836</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -860,7 +860,7 @@
         <v>1093509.217790673</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -938,7 +938,7 @@
         <v>1094520.044090673</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>1094520.044090673</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>1094418.004090673</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>1094418.004090673</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>1117796.868590673</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>1123186.695890673</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>1123186.695890673</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>1123124.417790673</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>1123114.442790673</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>1123115.609790673</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>1119730.571790673</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>1119730.571790673</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>1118482.702690673</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>1118509.502690673</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>1118499.502690673</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>1097263.517890673</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>1097265.443890673</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>1097265.443890673</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>1095856.690990673</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>1095855.690990673</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>1095856.997690673</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>1095856.997690673</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>1095635.722790673</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>1085328.429190673</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>1085328.429190673</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>1087763.701390673</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>1087763.701390673</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>1085849.151690673</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>1085849.151690673</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
